--- a/SUMR25_River_Rockfish_Proj/Raw_Data/River's_Rockfish_Metadata_Parturition_V7.xlsx
+++ b/SUMR25_River_Rockfish_Proj/Raw_Data/River's_Rockfish_Metadata_Parturition_V7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmcke\OneDrive\Documents\Summer_2025_Rockfish_Research_Project\Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6963AD5-605D-46DD-BA99-67076B510E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ADDCF7-9AAE-4B58-90E6-F1C375F1A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{1F309CE8-D94F-4E95-9E51-ED88FCC75EAC}"/>
   </bookViews>
@@ -736,9 +736,6 @@
     <t>Pregnancy_Goodness_on_2024_Atresiafish_Guide2.csv</t>
   </si>
   <si>
-    <t>Concensus_General_Treatment</t>
-  </si>
-  <si>
     <t>Date_Of_Processing</t>
   </si>
   <si>
@@ -3975,9 +3972,6 @@
     <t>Mother died</t>
   </si>
   <si>
-    <t>Concencus_Atresia_Or_Pregnant</t>
-  </si>
-  <si>
     <t>Post Parturition</t>
   </si>
   <si>
@@ -5769,9 +5763,6 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>Concensus_Brood_Condition</t>
-  </si>
-  <si>
     <t>50/50</t>
   </si>
   <si>
@@ -5796,9 +5787,6 @@
     <t>9 or 11?</t>
   </si>
   <si>
-    <t>Concensus_Parturition_Score</t>
-  </si>
-  <si>
     <t>Low, Likely Normal</t>
   </si>
   <si>
@@ -5824,6 +5812,18 @@
   </si>
   <si>
     <t>Very Low (&lt; 1,000)</t>
+  </si>
+  <si>
+    <t>Consensus_General_Treatment</t>
+  </si>
+  <si>
+    <t>Consensus_Atresia_Or_Pregnant</t>
+  </si>
+  <si>
+    <t>Consensus_Parturition_Score</t>
+  </si>
+  <si>
+    <t>Consensus_Brood_Condition</t>
   </si>
 </sst>
 </file>
@@ -6823,8 +6823,8 @@
   <dimension ref="A1:AY68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI2" sqref="AI2"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6890,16 +6890,16 @@
         <v>227</v>
       </c>
       <c r="D1" s="58" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="59" t="s">
-        <v>428</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" t="s">
         <v>233</v>
-      </c>
-      <c r="G1" t="s">
-        <v>234</v>
       </c>
       <c r="H1" t="s">
         <v>228</v>
@@ -6944,19 +6944,19 @@
         <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="W1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="X1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Y1" s="86" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="Z1" s="85" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="AA1" t="s">
         <v>3</v>
@@ -6977,10 +6977,10 @@
         <v>16</v>
       </c>
       <c r="AG1" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AH1" s="30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AI1" t="s">
         <v>104</v>
@@ -7007,10 +7007,10 @@
         <v>129</v>
       </c>
       <c r="AQ1" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AR1" s="57" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AS1" s="29" t="s">
         <v>139</v>
@@ -7019,19 +7019,19 @@
         <v>140</v>
       </c>
       <c r="AU1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AV1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AW1" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="AX1" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="AY1" s="44" t="s">
         <v>325</v>
-      </c>
-      <c r="AX1" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="AY1" s="44" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:51">
@@ -7048,13 +7048,13 @@
         <v>75</v>
       </c>
       <c r="E2" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F2" s="36">
         <v>45736</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" t="s">
         <v>75</v>
@@ -7102,7 +7102,7 @@
         <v>36</v>
       </c>
       <c r="W2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X2" t="s">
         <v>77</v>
@@ -7126,10 +7126,10 @@
         <v>92</v>
       </c>
       <c r="AG2" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH2" s="49" t="s">
         <v>386</v>
-      </c>
-      <c r="AH2" s="49" t="s">
-        <v>387</v>
       </c>
       <c r="AI2" t="s">
         <v>192</v>
@@ -7156,10 +7156,10 @@
         <v>160</v>
       </c>
       <c r="AQ2" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AR2" s="26" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AS2" s="29">
         <v>307</v>
@@ -7186,13 +7186,13 @@
         <v>214</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F3" s="36">
         <v>45740</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H3" t="s">
         <v>100</v>
@@ -7231,19 +7231,19 @@
         <v>138</v>
       </c>
       <c r="V3" s="30" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X3" t="s">
         <v>77</v>
       </c>
       <c r="Y3" s="86" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Z3" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA3" t="s">
         <v>210</v>
@@ -7261,10 +7261,10 @@
         <v>190</v>
       </c>
       <c r="AG3" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH3" s="49" t="s">
         <v>384</v>
-      </c>
-      <c r="AH3" s="49" t="s">
-        <v>385</v>
       </c>
       <c r="AI3" t="s">
         <v>133</v>
@@ -7291,10 +7291,10 @@
         <v>191</v>
       </c>
       <c r="AQ3" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR3" s="57" t="s">
         <v>424</v>
-      </c>
-      <c r="AR3" s="57" t="s">
-        <v>425</v>
       </c>
       <c r="AS3" s="29">
         <v>279</v>
@@ -7323,7 +7323,7 @@
         <v>75</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F4" s="36">
         <v>45736</v>
@@ -7377,7 +7377,7 @@
         <v>4</v>
       </c>
       <c r="Z4" s="85" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AA4" t="s">
         <v>208</v>
@@ -7392,10 +7392,10 @@
         <v>92</v>
       </c>
       <c r="AG4" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="AH4" s="48" t="s">
         <v>382</v>
-      </c>
-      <c r="AH4" s="48" t="s">
-        <v>383</v>
       </c>
       <c r="AI4" t="s">
         <v>189</v>
@@ -7422,10 +7422,10 @@
         <v>188</v>
       </c>
       <c r="AQ4" s="44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AR4" s="57" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AS4" s="29">
         <v>291</v>
@@ -7434,7 +7434,7 @@
         <v>564.9</v>
       </c>
       <c r="AV4" s="73" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW4" s="42" t="s">
         <v>105</v>
@@ -7454,7 +7454,7 @@
         <v>75</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F5" s="36">
         <v>45736</v>
@@ -7502,7 +7502,7 @@
         <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X5" t="s">
         <v>77</v>
@@ -7511,7 +7511,7 @@
         <v>13</v>
       </c>
       <c r="Z5" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA5" t="s">
         <v>209</v>
@@ -7529,10 +7529,10 @@
         <v>187</v>
       </c>
       <c r="AG5" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="AH5" s="48" t="s">
         <v>380</v>
-      </c>
-      <c r="AH5" s="48" t="s">
-        <v>381</v>
       </c>
       <c r="AI5" t="s">
         <v>186</v>
@@ -7559,10 +7559,10 @@
         <v>160</v>
       </c>
       <c r="AQ5" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AR5" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS5" s="29">
         <v>280</v>
@@ -7592,7 +7592,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F6" s="36">
         <v>45736</v>
@@ -7670,10 +7670,10 @@
         <v>182</v>
       </c>
       <c r="AG6" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH6" s="50" t="s">
         <v>378</v>
-      </c>
-      <c r="AH6" s="50" t="s">
-        <v>379</v>
       </c>
       <c r="AI6" t="s">
         <v>181</v>
@@ -7700,10 +7700,10 @@
         <v>160</v>
       </c>
       <c r="AQ6" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AR6" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS6" s="29">
         <v>291</v>
@@ -7712,7 +7712,7 @@
         <v>488.7</v>
       </c>
       <c r="AV6" s="73" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AW6" s="42" t="s">
         <v>105</v>
@@ -7732,13 +7732,13 @@
         <v>75</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F7" s="36">
         <v>45745</v>
       </c>
       <c r="G7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
         <v>75</v>
@@ -7777,13 +7777,13 @@
         <v>138</v>
       </c>
       <c r="V7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W7" t="s">
         <v>29</v>
       </c>
       <c r="X7" s="30" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="Y7" s="86">
         <v>5</v>
@@ -7807,10 +7807,10 @@
         <v>176</v>
       </c>
       <c r="AG7" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH7" s="48" t="s">
         <v>376</v>
-      </c>
-      <c r="AH7" s="48" t="s">
-        <v>377</v>
       </c>
       <c r="AI7" t="s">
         <v>179</v>
@@ -7837,10 +7837,10 @@
         <v>130</v>
       </c>
       <c r="AQ7" s="44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AR7" s="57" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AS7" s="29">
         <v>321</v>
@@ -7867,13 +7867,13 @@
         <v>75</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F8" s="36">
         <v>45380</v>
       </c>
       <c r="G8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H8" t="s">
         <v>75</v>
@@ -7948,10 +7948,10 @@
         <v>174</v>
       </c>
       <c r="AG8" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH8" s="49" t="s">
         <v>374</v>
-      </c>
-      <c r="AH8" s="49" t="s">
-        <v>375</v>
       </c>
       <c r="AI8" t="s">
         <v>207</v>
@@ -7990,7 +7990,7 @@
         <v>452.6</v>
       </c>
       <c r="AV8" s="73" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AW8" s="42" t="s">
         <v>105</v>
@@ -8010,13 +8010,13 @@
         <v>75</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F9" s="36">
         <v>45380</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H9" t="s">
         <v>75</v>
@@ -8043,7 +8043,7 @@
         <v>136</v>
       </c>
       <c r="R9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X9" t="s">
         <v>102</v>
@@ -8064,7 +8064,7 @@
         <v>11</v>
       </c>
       <c r="Z9" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA9" t="s">
         <v>205</v>
@@ -8082,10 +8082,10 @@
         <v>173</v>
       </c>
       <c r="AG9" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH9" s="49" t="s">
         <v>372</v>
-      </c>
-      <c r="AH9" s="49" t="s">
-        <v>373</v>
       </c>
       <c r="AI9" t="s">
         <v>172</v>
@@ -8112,10 +8112,10 @@
         <v>184</v>
       </c>
       <c r="AQ9" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR9" s="57" t="s">
         <v>424</v>
-      </c>
-      <c r="AR9" s="57" t="s">
-        <v>425</v>
       </c>
       <c r="AS9" s="29">
         <v>297</v>
@@ -8145,13 +8145,13 @@
         <v>214</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F10" s="36">
         <v>45406</v>
       </c>
       <c r="G10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H10" t="s">
         <v>100</v>
@@ -8193,7 +8193,7 @@
         <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X10" t="s">
         <v>103</v>
@@ -8220,10 +8220,10 @@
         <v>170</v>
       </c>
       <c r="AG10" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH10" s="48" t="s">
         <v>370</v>
-      </c>
-      <c r="AH10" s="48" t="s">
-        <v>371</v>
       </c>
       <c r="AI10" t="s">
         <v>171</v>
@@ -8250,10 +8250,10 @@
         <v>183</v>
       </c>
       <c r="AQ10" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AR10" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS10" s="29">
         <v>286</v>
@@ -8262,10 +8262,10 @@
         <v>489.4</v>
       </c>
       <c r="AU10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AV10" s="73" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AW10" s="42">
         <f t="shared" si="0"/>
@@ -8286,13 +8286,13 @@
         <v>214</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F11" s="36">
         <v>45406</v>
       </c>
       <c r="G11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H11" t="s">
         <v>100</v>
@@ -8367,10 +8367,10 @@
         <v>168</v>
       </c>
       <c r="AG11" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH11" s="48" t="s">
         <v>368</v>
-      </c>
-      <c r="AH11" s="48" t="s">
-        <v>369</v>
       </c>
       <c r="AI11" t="s">
         <v>132</v>
@@ -8397,10 +8397,10 @@
         <v>130</v>
       </c>
       <c r="AQ11" s="44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AR11" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS11" s="29">
         <v>295</v>
@@ -8409,10 +8409,10 @@
         <v>515.4</v>
       </c>
       <c r="AU11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AV11" s="73" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW11" s="42">
         <f t="shared" si="0"/>
@@ -8433,13 +8433,13 @@
         <v>75</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F12" s="62">
         <v>45401</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H12" s="61" t="s">
         <v>108</v>
@@ -8511,10 +8511,10 @@
         <v>167</v>
       </c>
       <c r="AG12" s="61" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH12" s="65" t="s">
         <v>366</v>
-      </c>
-      <c r="AH12" s="65" t="s">
-        <v>367</v>
       </c>
       <c r="AI12" s="61" t="s">
         <v>109</v>
@@ -8541,7 +8541,7 @@
         <v>143</v>
       </c>
       <c r="AQ12" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AR12" s="61" t="s">
         <v>105</v>
@@ -8553,10 +8553,10 @@
         <v>576.70000000000005</v>
       </c>
       <c r="AU12" s="61" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AV12" s="83" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AW12" s="61" t="s">
         <v>105</v>
@@ -8657,10 +8657,10 @@
         <v>165</v>
       </c>
       <c r="AG13" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AH13" s="47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AI13" t="s">
         <v>166</v>
@@ -8690,7 +8690,7 @@
         <v>136</v>
       </c>
       <c r="AR13" s="81" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AS13" s="29">
         <v>279</v>
@@ -8699,7 +8699,7 @@
         <v>475.8</v>
       </c>
       <c r="AU13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AV13" s="76">
         <v>45390</v>
@@ -8803,10 +8803,10 @@
         <v>164</v>
       </c>
       <c r="AG14" s="30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AH14" s="45" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AI14" t="s">
         <v>163</v>
@@ -8836,7 +8836,7 @@
         <v>136</v>
       </c>
       <c r="AR14" s="81" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AS14" s="29">
         <v>288</v>
@@ -8863,7 +8863,7 @@
         <v>214</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F15" s="61" t="s">
         <v>105</v>
@@ -8941,10 +8941,10 @@
         <v>159</v>
       </c>
       <c r="AG15" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH15" s="67" t="s">
         <v>362</v>
-      </c>
-      <c r="AH15" s="67" t="s">
-        <v>363</v>
       </c>
       <c r="AI15" s="61" t="s">
         <v>158</v>
@@ -8971,10 +8971,10 @@
         <v>160</v>
       </c>
       <c r="AQ15" s="61" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AR15" s="61" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS15" s="61">
         <v>264</v>
@@ -8983,10 +8983,10 @@
         <v>393.6</v>
       </c>
       <c r="AU15" s="61" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV15" s="84" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW15" s="61">
         <f t="shared" si="0"/>
@@ -9007,13 +9007,13 @@
         <v>75</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F16" s="36">
         <v>45429</v>
       </c>
       <c r="G16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H16" t="s">
         <v>75</v>
@@ -9052,7 +9052,7 @@
         <v>138</v>
       </c>
       <c r="V16" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W16" t="s">
         <v>29</v>
@@ -9082,10 +9082,10 @@
         <v>92</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AH16" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AI16" t="s">
         <v>157</v>
@@ -9112,10 +9112,10 @@
         <v>184</v>
       </c>
       <c r="AQ16" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR16" s="57" t="s">
         <v>424</v>
-      </c>
-      <c r="AR16" s="57" t="s">
-        <v>425</v>
       </c>
       <c r="AS16" s="29">
         <v>279</v>
@@ -9124,7 +9124,7 @@
         <v>466.6</v>
       </c>
       <c r="AU16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AV16" s="76">
         <v>45397</v>
@@ -9148,13 +9148,13 @@
         <v>75</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F17" s="36">
         <v>45429</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H17" t="s">
         <v>75</v>
@@ -9190,10 +9190,10 @@
         <v>138</v>
       </c>
       <c r="V17" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W17" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X17" t="s">
         <v>77</v>
@@ -9202,7 +9202,7 @@
         <v>11</v>
       </c>
       <c r="Z17" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA17" t="s">
         <v>200</v>
@@ -9217,10 +9217,10 @@
         <v>92</v>
       </c>
       <c r="AG17" s="30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AH17" s="45" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI17" t="s">
         <v>114</v>
@@ -9247,10 +9247,10 @@
         <v>184</v>
       </c>
       <c r="AQ17" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AR17" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS17" s="29">
         <v>245</v>
@@ -9259,7 +9259,7 @@
         <v>340.6</v>
       </c>
       <c r="AU17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV17" s="76">
         <v>45390</v>
@@ -9283,13 +9283,13 @@
         <v>75</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F18" s="36">
         <v>45433</v>
       </c>
       <c r="G18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H18" t="s">
         <v>108</v>
@@ -9364,10 +9364,10 @@
         <v>156</v>
       </c>
       <c r="AG18" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH18" s="45" t="s">
         <v>355</v>
-      </c>
-      <c r="AH18" s="45" t="s">
-        <v>356</v>
       </c>
       <c r="AI18" t="s">
         <v>114</v>
@@ -9397,7 +9397,7 @@
         <v>136</v>
       </c>
       <c r="AR18" s="81" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AS18" s="29">
         <v>260</v>
@@ -9406,10 +9406,10 @@
         <v>289</v>
       </c>
       <c r="AU18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AV18" s="78" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW18" s="42" t="s">
         <v>105</v>
@@ -9429,13 +9429,13 @@
         <v>75</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F19" s="36">
         <v>45433</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H19" t="s">
         <v>75</v>
@@ -9507,10 +9507,10 @@
         <v>92</v>
       </c>
       <c r="AG19" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AH19" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AI19" t="s">
         <v>155</v>
@@ -9540,7 +9540,7 @@
         <v>136</v>
       </c>
       <c r="AR19" s="81" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AS19" s="29">
         <v>261</v>
@@ -9549,7 +9549,7 @@
         <v>375.9</v>
       </c>
       <c r="AU19" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AV19" s="76">
         <v>45397</v>
@@ -9653,10 +9653,10 @@
         <v>151</v>
       </c>
       <c r="AG20" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH20" s="45" t="s">
         <v>358</v>
-      </c>
-      <c r="AH20" s="45" t="s">
-        <v>359</v>
       </c>
       <c r="AI20" t="s">
         <v>150</v>
@@ -9686,7 +9686,7 @@
         <v>136</v>
       </c>
       <c r="AR20" s="81" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AS20" s="29">
         <v>270</v>
@@ -9695,7 +9695,7 @@
         <v>446.9</v>
       </c>
       <c r="AU20" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AV20" s="76">
         <v>45397</v>
@@ -9718,13 +9718,13 @@
         <v>75</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F21" s="36">
         <v>45433</v>
       </c>
       <c r="G21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H21" t="s">
         <v>75</v>
@@ -9760,10 +9760,10 @@
         <v>138</v>
       </c>
       <c r="V21" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W21" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X21" t="s">
         <v>77</v>
@@ -9772,7 +9772,7 @@
         <v>11</v>
       </c>
       <c r="Z21" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA21" t="s">
         <v>196</v>
@@ -9790,10 +9790,10 @@
         <v>148</v>
       </c>
       <c r="AG21" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AH21" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AI21" t="s">
         <v>131</v>
@@ -9820,10 +9820,10 @@
         <v>184</v>
       </c>
       <c r="AQ21" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AR21" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS21" s="29">
         <v>240</v>
@@ -9850,13 +9850,13 @@
         <v>75</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F22" s="36">
         <v>45433</v>
       </c>
       <c r="G22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H22" t="s">
         <v>75</v>
@@ -9895,7 +9895,7 @@
         <v>45</v>
       </c>
       <c r="W22" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X22" t="s">
         <v>103</v>
@@ -9919,10 +9919,10 @@
         <v>92</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AH22" s="46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AI22" t="s">
         <v>114</v>
@@ -9949,10 +9949,10 @@
         <v>184</v>
       </c>
       <c r="AQ22" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AR22" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS22" s="29">
         <v>254</v>
@@ -9961,7 +9961,7 @@
         <v>338</v>
       </c>
       <c r="AU22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV22" s="76">
         <v>45397</v>
@@ -9985,7 +9985,7 @@
         <v>75</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F23" s="61" t="s">
         <v>105</v>
@@ -10066,10 +10066,10 @@
         <v>161</v>
       </c>
       <c r="AG23" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH23" s="67" t="s">
         <v>355</v>
-      </c>
-      <c r="AH23" s="67" t="s">
-        <v>356</v>
       </c>
       <c r="AI23" s="61" t="s">
         <v>147</v>
@@ -10096,10 +10096,10 @@
         <v>184</v>
       </c>
       <c r="AQ23" s="61" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AR23" s="61" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS23" s="61">
         <v>284</v>
@@ -10108,10 +10108,10 @@
         <v>510.9</v>
       </c>
       <c r="AU23" s="61" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AV23" s="84" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AW23" s="61">
         <f t="shared" si="0"/>
@@ -10132,10 +10132,10 @@
         <v>75</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H24" t="s">
         <v>75</v>
@@ -10171,10 +10171,10 @@
         <v>138</v>
       </c>
       <c r="V24" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W24" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X24" t="s">
         <v>102</v>
@@ -10198,10 +10198,10 @@
         <v>92</v>
       </c>
       <c r="AG24" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="AH24" s="46" t="s">
         <v>353</v>
-      </c>
-      <c r="AH24" s="46" t="s">
-        <v>354</v>
       </c>
       <c r="AI24" t="s">
         <v>114</v>
@@ -10228,10 +10228,10 @@
         <v>184</v>
       </c>
       <c r="AQ24" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR24" s="57" t="s">
         <v>424</v>
-      </c>
-      <c r="AR24" s="57" t="s">
-        <v>425</v>
       </c>
       <c r="AS24" s="29">
         <v>258</v>
@@ -10240,7 +10240,7 @@
         <v>387.4</v>
       </c>
       <c r="AU24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV24" s="76">
         <v>45390</v>
@@ -10264,13 +10264,13 @@
         <v>75</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F25" s="36">
         <v>45433</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H25" t="s">
         <v>108</v>
@@ -10342,10 +10342,10 @@
         <v>92</v>
       </c>
       <c r="AG25" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH25" s="45" t="s">
         <v>351</v>
-      </c>
-      <c r="AH25" s="45" t="s">
-        <v>352</v>
       </c>
       <c r="AI25" t="s">
         <v>114</v>
@@ -10375,7 +10375,7 @@
         <v>136</v>
       </c>
       <c r="AR25" s="81" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AS25" s="29">
         <v>259</v>
@@ -10384,10 +10384,10 @@
         <v>362.4</v>
       </c>
       <c r="AU25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV25" s="78" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AW25" s="42" t="s">
         <v>105</v>
@@ -10407,13 +10407,13 @@
         <v>75</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F26" s="36">
         <v>45433</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H26" t="s">
         <v>108</v>
@@ -10446,10 +10446,10 @@
         <v>138</v>
       </c>
       <c r="V26" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W26" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X26" t="s">
         <v>102</v>
@@ -10473,10 +10473,10 @@
         <v>92</v>
       </c>
       <c r="AG26" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="AH26" s="45" t="s">
         <v>349</v>
-      </c>
-      <c r="AH26" s="45" t="s">
-        <v>350</v>
       </c>
       <c r="AI26" t="s">
         <v>114</v>
@@ -10503,10 +10503,10 @@
         <v>184</v>
       </c>
       <c r="AQ26" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR26" s="57" t="s">
         <v>424</v>
-      </c>
-      <c r="AR26" s="57" t="s">
-        <v>425</v>
       </c>
       <c r="AS26" s="29">
         <v>250</v>
@@ -10515,10 +10515,10 @@
         <v>348.3</v>
       </c>
       <c r="AU26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AV26" s="78" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AW26" s="42">
         <f t="shared" si="0"/>
@@ -10539,13 +10539,13 @@
         <v>75</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F27" s="36">
         <v>45433</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H27" t="s">
         <v>75</v>
@@ -10617,10 +10617,10 @@
         <v>92</v>
       </c>
       <c r="AG27" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH27" s="45" t="s">
         <v>347</v>
-      </c>
-      <c r="AH27" s="45" t="s">
-        <v>348</v>
       </c>
       <c r="AI27" t="s">
         <v>114</v>
@@ -10650,7 +10650,7 @@
         <v>136</v>
       </c>
       <c r="AR27" s="81" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AS27" s="29">
         <v>231</v>
@@ -10659,10 +10659,10 @@
         <v>269.89999999999998</v>
       </c>
       <c r="AU27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AV27" s="78" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AW27" s="42" t="s">
         <v>105</v>
@@ -10682,10 +10682,10 @@
         <v>75</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" t="s">
         <v>108</v>
@@ -10721,10 +10721,10 @@
         <v>138</v>
       </c>
       <c r="V28" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W28" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X28" t="s">
         <v>77</v>
@@ -10733,7 +10733,7 @@
         <v>11</v>
       </c>
       <c r="Z28" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA28" t="s">
         <v>194</v>
@@ -10751,10 +10751,10 @@
         <v>152</v>
       </c>
       <c r="AG28" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="AH28" s="46" t="s">
         <v>345</v>
-      </c>
-      <c r="AH28" s="46" t="s">
-        <v>346</v>
       </c>
       <c r="AI28" t="s">
         <v>114</v>
@@ -10781,10 +10781,10 @@
         <v>184</v>
       </c>
       <c r="AQ28" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AR28" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS28" s="29">
         <v>247</v>
@@ -10793,10 +10793,10 @@
         <v>395.5</v>
       </c>
       <c r="AU28" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AV28" s="78" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AW28" s="42">
         <f t="shared" si="0"/>
@@ -10817,10 +10817,10 @@
         <v>75</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H29" t="s">
         <v>75</v>
@@ -10856,10 +10856,10 @@
         <v>138</v>
       </c>
       <c r="V29" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W29" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X29" t="s">
         <v>77</v>
@@ -10868,7 +10868,7 @@
         <v>11</v>
       </c>
       <c r="Z29" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA29" t="s">
         <v>194</v>
@@ -10883,10 +10883,10 @@
         <v>92</v>
       </c>
       <c r="AG29" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH29" s="45" t="s">
         <v>343</v>
-      </c>
-      <c r="AH29" s="45" t="s">
-        <v>344</v>
       </c>
       <c r="AI29" t="s">
         <v>114</v>
@@ -10913,10 +10913,10 @@
         <v>184</v>
       </c>
       <c r="AQ29" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AR29" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS29" s="29">
         <v>247</v>
@@ -10925,10 +10925,10 @@
         <v>318.60000000000002</v>
       </c>
       <c r="AU29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV29" s="78" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AW29" s="42">
         <f t="shared" si="0"/>
@@ -10949,10 +10949,10 @@
         <v>75</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H30" t="s">
         <v>108</v>
@@ -10988,10 +10988,10 @@
         <v>138</v>
       </c>
       <c r="V30" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W30" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X30" t="s">
         <v>77</v>
@@ -11000,7 +11000,7 @@
         <v>11</v>
       </c>
       <c r="Z30" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA30" t="s">
         <v>194</v>
@@ -11015,10 +11015,10 @@
         <v>92</v>
       </c>
       <c r="AG30" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH30" s="46" t="s">
         <v>341</v>
-      </c>
-      <c r="AH30" s="46" t="s">
-        <v>342</v>
       </c>
       <c r="AI30" t="s">
         <v>114</v>
@@ -11045,10 +11045,10 @@
         <v>184</v>
       </c>
       <c r="AQ30" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AR30" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS30" s="29">
         <v>239</v>
@@ -11057,10 +11057,10 @@
         <v>321.39999999999998</v>
       </c>
       <c r="AU30" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV30" s="78" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AW30" s="42">
         <f t="shared" si="0"/>
@@ -11081,10 +11081,10 @@
         <v>214</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H31" s="61" t="s">
         <v>100</v>
@@ -11159,10 +11159,10 @@
         <v>162</v>
       </c>
       <c r="AG31" s="70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AH31" s="67" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AI31" s="61" t="s">
         <v>141</v>
@@ -11189,10 +11189,10 @@
         <v>184</v>
       </c>
       <c r="AQ31" s="61" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AR31" s="61" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="AS31" s="61">
         <v>258</v>
@@ -11201,10 +11201,10 @@
         <v>367.5</v>
       </c>
       <c r="AU31" s="61" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AV31" s="84" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AW31" s="61">
         <f t="shared" si="0"/>
@@ -11225,7 +11225,7 @@
         <v>75</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>105</v>
@@ -11267,10 +11267,10 @@
         <v>138</v>
       </c>
       <c r="V32" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W32" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X32" t="s">
         <v>102</v>
@@ -11294,10 +11294,10 @@
         <v>92</v>
       </c>
       <c r="AG32" s="30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AH32" s="45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AI32" t="s">
         <v>114</v>
@@ -11324,10 +11324,10 @@
         <v>184</v>
       </c>
       <c r="AQ32" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR32" s="57" t="s">
         <v>424</v>
-      </c>
-      <c r="AR32" s="57" t="s">
-        <v>425</v>
       </c>
       <c r="AS32" s="29">
         <v>240</v>
@@ -11336,10 +11336,10 @@
         <v>277.60000000000002</v>
       </c>
       <c r="AU32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AV32" s="78" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AW32" s="42">
         <f t="shared" si="0"/>
@@ -11360,10 +11360,10 @@
         <v>75</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H33" t="s">
         <v>108</v>
@@ -11399,10 +11399,10 @@
         <v>138</v>
       </c>
       <c r="V33" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W33" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X33" t="s">
         <v>103</v>
@@ -11411,7 +11411,7 @@
         <v>13</v>
       </c>
       <c r="Z33" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AA33" t="s">
         <v>194</v>
@@ -11429,10 +11429,10 @@
         <v>153</v>
       </c>
       <c r="AG33" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AH33" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AI33" t="s">
         <v>118</v>
@@ -11459,10 +11459,10 @@
         <v>184</v>
       </c>
       <c r="AQ33" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AR33" s="57" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="AS33" s="29">
         <v>271</v>
@@ -11471,10 +11471,10 @@
         <v>429.9</v>
       </c>
       <c r="AU33" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AV33" s="78" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AW33" s="42">
         <f t="shared" si="0"/>
@@ -11495,10 +11495,10 @@
         <v>214</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H34" t="s">
         <v>100</v>
@@ -11534,10 +11534,10 @@
         <v>138</v>
       </c>
       <c r="V34" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W34" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X34" t="s">
         <v>102</v>
@@ -11564,10 +11564,10 @@
         <v>177</v>
       </c>
       <c r="AG34" s="30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AH34" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI34" t="s">
         <v>120</v>
@@ -11594,10 +11594,10 @@
         <v>184</v>
       </c>
       <c r="AQ34" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR34" s="57" t="s">
         <v>424</v>
-      </c>
-      <c r="AR34" s="57" t="s">
-        <v>425</v>
       </c>
       <c r="AS34" s="29">
         <v>236</v>
@@ -11609,7 +11609,7 @@
         <v>31</v>
       </c>
       <c r="AV34" s="78" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AW34" s="42">
         <f t="shared" si="0"/>
@@ -11630,13 +11630,13 @@
         <v>75</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F35" s="36">
         <v>45463</v>
       </c>
       <c r="G35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H35" t="s">
         <v>75</v>
@@ -11672,10 +11672,10 @@
         <v>138</v>
       </c>
       <c r="V35" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="W35" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X35" t="s">
         <v>102</v>
@@ -11699,10 +11699,10 @@
         <v>92</v>
       </c>
       <c r="AG35" s="30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AH35" s="45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AI35" t="s">
         <v>114</v>
@@ -11729,10 +11729,10 @@
         <v>184</v>
       </c>
       <c r="AQ35" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR35" s="57" t="s">
         <v>424</v>
-      </c>
-      <c r="AR35" s="57" t="s">
-        <v>425</v>
       </c>
       <c r="AS35" s="29">
         <v>229</v>
@@ -11741,10 +11741,10 @@
         <v>265.2</v>
       </c>
       <c r="AU35" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AV35" s="78" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AW35" s="42">
         <f t="shared" si="0"/>
@@ -11756,7 +11756,7 @@
         <v>97824</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
         <v>105</v>
@@ -11771,7 +11771,7 @@
         <v>45380</v>
       </c>
       <c r="G36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H36" t="s">
         <v>75</v>
@@ -11792,28 +11792,28 @@
         <v>113</v>
       </c>
       <c r="N36" t="s">
+        <v>247</v>
+      </c>
+      <c r="O36" t="s">
+        <v>247</v>
+      </c>
+      <c r="P36" t="s">
         <v>248</v>
       </c>
-      <c r="O36" t="s">
-        <v>248</v>
-      </c>
-      <c r="P36" t="s">
-        <v>249</v>
-      </c>
       <c r="Q36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U36" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V36" t="s">
         <v>113</v>
@@ -11831,7 +11831,7 @@
         <v>113</v>
       </c>
       <c r="AA36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB36" t="s">
         <v>113</v>
@@ -11843,19 +11843,19 @@
         <v>91</v>
       </c>
       <c r="AF36" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG36" s="30" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH36" s="48" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AI36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ36" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK36" s="26" t="s">
         <v>105</v>
@@ -11873,13 +11873,13 @@
         <v>137</v>
       </c>
       <c r="AP36" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AQ36" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR36" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS36" s="29">
         <v>280</v>
@@ -11888,10 +11888,10 @@
         <v>485.2</v>
       </c>
       <c r="AU36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AV36" s="73" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AW36" s="42" t="s">
         <v>105</v>
@@ -11902,7 +11902,7 @@
         <v>97827</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s">
         <v>105</v>
@@ -11917,7 +11917,7 @@
         <v>45380</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H37" t="s">
         <v>75</v>
@@ -11938,28 +11938,28 @@
         <v>113</v>
       </c>
       <c r="N37" t="s">
+        <v>247</v>
+      </c>
+      <c r="O37" t="s">
+        <v>247</v>
+      </c>
+      <c r="P37" t="s">
         <v>248</v>
       </c>
-      <c r="O37" t="s">
-        <v>248</v>
-      </c>
-      <c r="P37" t="s">
-        <v>249</v>
-      </c>
       <c r="Q37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U37" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V37" t="s">
         <v>113</v>
@@ -11977,7 +11977,7 @@
         <v>113</v>
       </c>
       <c r="AA37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB37" t="s">
         <v>113</v>
@@ -11989,19 +11989,19 @@
         <v>91</v>
       </c>
       <c r="AF37" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG37" s="30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AH37" s="48" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AI37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ37" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK37" s="26" t="s">
         <v>105</v>
@@ -12019,13 +12019,13 @@
         <v>137</v>
       </c>
       <c r="AP37" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ37" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR37" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS37" s="29">
         <v>283</v>
@@ -12034,10 +12034,10 @@
         <v>528.5</v>
       </c>
       <c r="AU37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AV37" s="73" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AW37" s="42" t="s">
         <v>105</v>
@@ -12045,10 +12045,10 @@
     </row>
     <row r="38" spans="1:49">
       <c r="A38" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s">
         <v>105</v>
@@ -12063,7 +12063,7 @@
         <v>45380</v>
       </c>
       <c r="G38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H38" t="s">
         <v>75</v>
@@ -12084,28 +12084,28 @@
         <v>113</v>
       </c>
       <c r="N38" t="s">
+        <v>247</v>
+      </c>
+      <c r="O38" t="s">
+        <v>247</v>
+      </c>
+      <c r="P38" t="s">
         <v>248</v>
       </c>
-      <c r="O38" t="s">
-        <v>248</v>
-      </c>
-      <c r="P38" t="s">
-        <v>249</v>
-      </c>
       <c r="Q38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U38" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V38" t="s">
         <v>113</v>
@@ -12123,7 +12123,7 @@
         <v>113</v>
       </c>
       <c r="AA38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB38" t="s">
         <v>113</v>
@@ -12135,19 +12135,19 @@
         <v>91</v>
       </c>
       <c r="AF38" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG38" s="30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AH38" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AI38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ38" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK38" s="26" t="s">
         <v>105</v>
@@ -12165,13 +12165,13 @@
         <v>137</v>
       </c>
       <c r="AP38" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ38" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR38" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS38" s="29">
         <v>276</v>
@@ -12180,7 +12180,7 @@
         <v>438</v>
       </c>
       <c r="AV38" s="78" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AW38" s="42" t="s">
         <v>105</v>
@@ -12188,10 +12188,10 @@
     </row>
     <row r="39" spans="1:49">
       <c r="A39" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
         <v>105</v>
@@ -12206,7 +12206,7 @@
         <v>45380</v>
       </c>
       <c r="G39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H39" t="s">
         <v>75</v>
@@ -12227,28 +12227,28 @@
         <v>113</v>
       </c>
       <c r="N39" t="s">
+        <v>247</v>
+      </c>
+      <c r="O39" t="s">
+        <v>247</v>
+      </c>
+      <c r="P39" t="s">
         <v>248</v>
       </c>
-      <c r="O39" t="s">
-        <v>248</v>
-      </c>
-      <c r="P39" t="s">
-        <v>249</v>
-      </c>
       <c r="Q39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U39" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V39" t="s">
         <v>113</v>
@@ -12266,7 +12266,7 @@
         <v>113</v>
       </c>
       <c r="AA39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB39" t="s">
         <v>113</v>
@@ -12278,16 +12278,16 @@
         <v>92</v>
       </c>
       <c r="AG39" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AH39" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AI39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ39" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK39" s="26" t="s">
         <v>105</v>
@@ -12305,13 +12305,13 @@
         <v>137</v>
       </c>
       <c r="AP39" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ39" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR39" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS39" s="29">
         <v>271</v>
@@ -12320,10 +12320,10 @@
         <v>475.4</v>
       </c>
       <c r="AU39" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV39" s="78" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AW39" s="42" t="s">
         <v>105</v>
@@ -12334,7 +12334,7 @@
         <v>97830</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
         <v>105</v>
@@ -12349,7 +12349,7 @@
         <v>45380</v>
       </c>
       <c r="G40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H40" t="s">
         <v>75</v>
@@ -12370,28 +12370,28 @@
         <v>113</v>
       </c>
       <c r="N40" t="s">
+        <v>247</v>
+      </c>
+      <c r="O40" t="s">
+        <v>247</v>
+      </c>
+      <c r="P40" t="s">
         <v>248</v>
       </c>
-      <c r="O40" t="s">
-        <v>248</v>
-      </c>
-      <c r="P40" t="s">
-        <v>249</v>
-      </c>
       <c r="Q40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U40" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V40" t="s">
         <v>113</v>
@@ -12409,7 +12409,7 @@
         <v>113</v>
       </c>
       <c r="AA40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB40" t="s">
         <v>113</v>
@@ -12421,19 +12421,19 @@
         <v>91</v>
       </c>
       <c r="AF40" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG40" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AH40" s="49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AI40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ40" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK40" s="26" t="s">
         <v>105</v>
@@ -12451,13 +12451,13 @@
         <v>137</v>
       </c>
       <c r="AP40" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ40" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR40" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS40" s="29">
         <v>270</v>
@@ -12466,10 +12466,10 @@
         <v>463.4</v>
       </c>
       <c r="AU40" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV40" s="78" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AW40" s="42" t="s">
         <v>105</v>
@@ -12480,7 +12480,7 @@
         <v>97823</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" t="s">
         <v>105</v>
@@ -12495,7 +12495,7 @@
         <v>45380</v>
       </c>
       <c r="G41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H41" t="s">
         <v>75</v>
@@ -12516,28 +12516,28 @@
         <v>113</v>
       </c>
       <c r="N41" t="s">
+        <v>247</v>
+      </c>
+      <c r="O41" t="s">
+        <v>247</v>
+      </c>
+      <c r="P41" t="s">
         <v>248</v>
       </c>
-      <c r="O41" t="s">
-        <v>248</v>
-      </c>
-      <c r="P41" t="s">
-        <v>249</v>
-      </c>
       <c r="Q41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U41" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V41" t="s">
         <v>113</v>
@@ -12555,7 +12555,7 @@
         <v>113</v>
       </c>
       <c r="AA41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB41" t="s">
         <v>113</v>
@@ -12567,16 +12567,16 @@
         <v>92</v>
       </c>
       <c r="AG41" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH41" s="49" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AI41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ41" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK41" s="26" t="s">
         <v>105</v>
@@ -12594,13 +12594,13 @@
         <v>137</v>
       </c>
       <c r="AP41" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ41" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR41" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS41" s="29">
         <v>280</v>
@@ -12612,7 +12612,7 @@
         <v>31</v>
       </c>
       <c r="AV41" s="78" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AW41" s="42" t="s">
         <v>105</v>
@@ -12623,7 +12623,7 @@
         <v>97836</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
         <v>105</v>
@@ -12638,7 +12638,7 @@
         <v>45380</v>
       </c>
       <c r="G42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H42" t="s">
         <v>75</v>
@@ -12659,28 +12659,28 @@
         <v>113</v>
       </c>
       <c r="N42" t="s">
+        <v>247</v>
+      </c>
+      <c r="O42" t="s">
+        <v>247</v>
+      </c>
+      <c r="P42" t="s">
         <v>248</v>
       </c>
-      <c r="O42" t="s">
-        <v>248</v>
-      </c>
-      <c r="P42" t="s">
-        <v>249</v>
-      </c>
       <c r="Q42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U42" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V42" t="s">
         <v>113</v>
@@ -12698,7 +12698,7 @@
         <v>113</v>
       </c>
       <c r="AA42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB42" t="s">
         <v>113</v>
@@ -12710,19 +12710,19 @@
         <v>91</v>
       </c>
       <c r="AF42" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG42" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AH42" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AI42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ42" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK42" s="26" t="s">
         <v>105</v>
@@ -12740,13 +12740,13 @@
         <v>137</v>
       </c>
       <c r="AP42" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ42" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR42" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS42" s="29">
         <v>279</v>
@@ -12758,7 +12758,7 @@
         <v>31</v>
       </c>
       <c r="AV42" s="73" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AW42" s="42" t="s">
         <v>105</v>
@@ -12766,10 +12766,10 @@
     </row>
     <row r="43" spans="1:49">
       <c r="A43" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C43" t="s">
         <v>105</v>
@@ -12784,7 +12784,7 @@
         <v>45380</v>
       </c>
       <c r="G43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H43" t="s">
         <v>75</v>
@@ -12805,28 +12805,28 @@
         <v>113</v>
       </c>
       <c r="N43" t="s">
+        <v>247</v>
+      </c>
+      <c r="O43" t="s">
+        <v>247</v>
+      </c>
+      <c r="P43" t="s">
         <v>248</v>
       </c>
-      <c r="O43" t="s">
-        <v>248</v>
-      </c>
-      <c r="P43" t="s">
-        <v>249</v>
-      </c>
       <c r="Q43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U43" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V43" t="s">
         <v>113</v>
@@ -12844,7 +12844,7 @@
         <v>113</v>
       </c>
       <c r="AA43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB43" t="s">
         <v>113</v>
@@ -12856,19 +12856,19 @@
         <v>91</v>
       </c>
       <c r="AF43" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG43" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="AG43" s="30" t="s">
-        <v>263</v>
-      </c>
       <c r="AH43" s="51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ43" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK43" s="26" t="s">
         <v>105</v>
@@ -12886,13 +12886,13 @@
         <v>137</v>
       </c>
       <c r="AP43" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ43" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR43" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS43" s="29">
         <v>301</v>
@@ -12904,7 +12904,7 @@
         <v>31</v>
       </c>
       <c r="AV43" s="73" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AW43" s="42" t="s">
         <v>105</v>
@@ -12915,7 +12915,7 @@
         <v>97822</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C44" t="s">
         <v>105</v>
@@ -12930,7 +12930,7 @@
         <v>45380</v>
       </c>
       <c r="G44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H44" t="s">
         <v>75</v>
@@ -12951,28 +12951,28 @@
         <v>113</v>
       </c>
       <c r="N44" t="s">
+        <v>247</v>
+      </c>
+      <c r="O44" t="s">
+        <v>247</v>
+      </c>
+      <c r="P44" t="s">
         <v>248</v>
       </c>
-      <c r="O44" t="s">
-        <v>248</v>
-      </c>
-      <c r="P44" t="s">
-        <v>249</v>
-      </c>
       <c r="Q44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U44" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V44" t="s">
         <v>113</v>
@@ -12990,7 +12990,7 @@
         <v>113</v>
       </c>
       <c r="AA44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB44" t="s">
         <v>113</v>
@@ -13002,19 +13002,19 @@
         <v>91</v>
       </c>
       <c r="AF44" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG44" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AH44" s="52" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AI44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ44" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK44" s="26" t="s">
         <v>105</v>
@@ -13032,13 +13032,13 @@
         <v>137</v>
       </c>
       <c r="AP44" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ44" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR44" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS44" s="29">
         <v>290</v>
@@ -13047,10 +13047,10 @@
         <v>514.5</v>
       </c>
       <c r="AU44" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AV44" s="78" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AW44" s="42" t="s">
         <v>105</v>
@@ -13058,10 +13058,10 @@
     </row>
     <row r="45" spans="1:49">
       <c r="A45" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
         <v>105</v>
@@ -13076,7 +13076,7 @@
         <v>45383</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H45" t="s">
         <v>214</v>
@@ -13097,28 +13097,28 @@
         <v>113</v>
       </c>
       <c r="N45" t="s">
+        <v>247</v>
+      </c>
+      <c r="O45" t="s">
+        <v>247</v>
+      </c>
+      <c r="P45" t="s">
         <v>248</v>
       </c>
-      <c r="O45" t="s">
-        <v>248</v>
-      </c>
-      <c r="P45" t="s">
-        <v>249</v>
-      </c>
       <c r="Q45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U45" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V45" t="s">
         <v>113</v>
@@ -13136,7 +13136,7 @@
         <v>113</v>
       </c>
       <c r="AA45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB45" t="s">
         <v>113</v>
@@ -13148,16 +13148,16 @@
         <v>92</v>
       </c>
       <c r="AG45" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AH45" s="45" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ45" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK45" s="26" t="s">
         <v>105</v>
@@ -13175,13 +13175,13 @@
         <v>137</v>
       </c>
       <c r="AP45" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ45" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR45" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS45" s="29">
         <v>275</v>
@@ -13190,10 +13190,10 @@
         <v>437.3</v>
       </c>
       <c r="AU45" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV45" s="75" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AW45" s="42" t="s">
         <v>105</v>
@@ -13201,10 +13201,10 @@
     </row>
     <row r="46" spans="1:49">
       <c r="A46" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C46" t="s">
         <v>105</v>
@@ -13219,7 +13219,7 @@
         <v>45383</v>
       </c>
       <c r="G46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H46" t="s">
         <v>214</v>
@@ -13240,28 +13240,28 @@
         <v>113</v>
       </c>
       <c r="N46" t="s">
+        <v>247</v>
+      </c>
+      <c r="O46" t="s">
+        <v>247</v>
+      </c>
+      <c r="P46" t="s">
         <v>248</v>
       </c>
-      <c r="O46" t="s">
-        <v>248</v>
-      </c>
-      <c r="P46" t="s">
-        <v>249</v>
-      </c>
       <c r="Q46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U46" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V46" t="s">
         <v>113</v>
@@ -13279,7 +13279,7 @@
         <v>113</v>
       </c>
       <c r="AA46" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB46" t="s">
         <v>113</v>
@@ -13291,19 +13291,19 @@
         <v>91</v>
       </c>
       <c r="AF46" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="AG46" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="AG46" s="30" t="s">
-        <v>271</v>
-      </c>
       <c r="AH46" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ46" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK46" s="26" t="s">
         <v>105</v>
@@ -13321,13 +13321,13 @@
         <v>137</v>
       </c>
       <c r="AP46" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ46" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR46" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS46" s="29">
         <v>293</v>
@@ -13336,10 +13336,10 @@
         <v>517.20000000000005</v>
       </c>
       <c r="AU46" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AV46" s="79" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AW46" s="42" t="s">
         <v>105</v>
@@ -13350,7 +13350,7 @@
         <v>97805</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" t="s">
         <v>105</v>
@@ -13365,7 +13365,7 @@
         <v>45383</v>
       </c>
       <c r="G47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H47" t="s">
         <v>214</v>
@@ -13386,28 +13386,28 @@
         <v>113</v>
       </c>
       <c r="N47" t="s">
+        <v>247</v>
+      </c>
+      <c r="O47" t="s">
+        <v>247</v>
+      </c>
+      <c r="P47" t="s">
         <v>248</v>
       </c>
-      <c r="O47" t="s">
-        <v>248</v>
-      </c>
-      <c r="P47" t="s">
-        <v>249</v>
-      </c>
       <c r="Q47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U47" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V47" t="s">
         <v>113</v>
@@ -13425,13 +13425,13 @@
         <v>113</v>
       </c>
       <c r="AA47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB47" t="s">
         <v>113</v>
       </c>
       <c r="AC47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD47" s="34">
         <v>45383</v>
@@ -13440,19 +13440,19 @@
         <v>91</v>
       </c>
       <c r="AF47" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG47" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="AG47" s="30" t="s">
-        <v>273</v>
-      </c>
       <c r="AH47" s="51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ47" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK47" s="26" t="s">
         <v>105</v>
@@ -13470,13 +13470,13 @@
         <v>137</v>
       </c>
       <c r="AP47" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ47" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR47" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS47" s="29">
         <v>303</v>
@@ -13488,7 +13488,7 @@
         <v>31</v>
       </c>
       <c r="AV47" s="73" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AW47" s="42" t="s">
         <v>105</v>
@@ -13496,10 +13496,10 @@
     </row>
     <row r="48" spans="1:49">
       <c r="A48" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" t="s">
         <v>275</v>
-      </c>
-      <c r="B48" t="s">
-        <v>276</v>
       </c>
       <c r="C48" t="s">
         <v>105</v>
@@ -13514,7 +13514,7 @@
         <v>45383</v>
       </c>
       <c r="G48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H48" t="s">
         <v>214</v>
@@ -13535,28 +13535,28 @@
         <v>113</v>
       </c>
       <c r="N48" t="s">
+        <v>247</v>
+      </c>
+      <c r="O48" t="s">
+        <v>247</v>
+      </c>
+      <c r="P48" t="s">
         <v>248</v>
       </c>
-      <c r="O48" t="s">
-        <v>248</v>
-      </c>
-      <c r="P48" t="s">
-        <v>249</v>
-      </c>
       <c r="Q48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U48" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V48" t="s">
         <v>113</v>
@@ -13574,7 +13574,7 @@
         <v>113</v>
       </c>
       <c r="AA48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB48" t="s">
         <v>113</v>
@@ -13586,16 +13586,16 @@
         <v>92</v>
       </c>
       <c r="AG48" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AH48" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ48" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK48" s="26" t="s">
         <v>105</v>
@@ -13613,13 +13613,13 @@
         <v>137</v>
       </c>
       <c r="AP48" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ48" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR48" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS48" s="29">
         <v>289</v>
@@ -13628,10 +13628,10 @@
         <v>557.5</v>
       </c>
       <c r="AU48" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AV48" s="73" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AW48" s="42" t="s">
         <v>105</v>
@@ -13642,7 +13642,7 @@
         <v>97841</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C49" t="s">
         <v>105</v>
@@ -13657,7 +13657,7 @@
         <v>45383</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H49" t="s">
         <v>214</v>
@@ -13678,28 +13678,28 @@
         <v>113</v>
       </c>
       <c r="N49" t="s">
+        <v>247</v>
+      </c>
+      <c r="O49" t="s">
+        <v>247</v>
+      </c>
+      <c r="P49" t="s">
         <v>248</v>
       </c>
-      <c r="O49" t="s">
-        <v>248</v>
-      </c>
-      <c r="P49" t="s">
-        <v>249</v>
-      </c>
       <c r="Q49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U49" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V49" t="s">
         <v>113</v>
@@ -13717,7 +13717,7 @@
         <v>113</v>
       </c>
       <c r="AA49" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB49" t="s">
         <v>113</v>
@@ -13729,16 +13729,16 @@
         <v>92</v>
       </c>
       <c r="AG49" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AH49" s="51" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ49" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK49" s="26" t="s">
         <v>105</v>
@@ -13756,13 +13756,13 @@
         <v>137</v>
       </c>
       <c r="AP49" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ49" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR49" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS49" s="29">
         <v>279</v>
@@ -13771,10 +13771,10 @@
         <v>487.6</v>
       </c>
       <c r="AU49" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV49" s="75" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AW49" s="42" t="s">
         <v>105</v>
@@ -13785,7 +13785,7 @@
         <v>97825</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C50" t="s">
         <v>105</v>
@@ -13800,7 +13800,7 @@
         <v>45383</v>
       </c>
       <c r="G50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H50" t="s">
         <v>214</v>
@@ -13821,28 +13821,28 @@
         <v>113</v>
       </c>
       <c r="N50" t="s">
+        <v>247</v>
+      </c>
+      <c r="O50" t="s">
+        <v>247</v>
+      </c>
+      <c r="P50" t="s">
         <v>248</v>
       </c>
-      <c r="O50" t="s">
-        <v>248</v>
-      </c>
-      <c r="P50" t="s">
-        <v>249</v>
-      </c>
       <c r="Q50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U50" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V50" t="s">
         <v>113</v>
@@ -13860,7 +13860,7 @@
         <v>113</v>
       </c>
       <c r="AA50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB50" t="s">
         <v>113</v>
@@ -13872,19 +13872,19 @@
         <v>91</v>
       </c>
       <c r="AF50" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG50" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="AG50" s="30" t="s">
-        <v>282</v>
-      </c>
       <c r="AH50" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AI50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ50" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK50" s="26" t="s">
         <v>105</v>
@@ -13902,13 +13902,13 @@
         <v>137</v>
       </c>
       <c r="AP50" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ50" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR50" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS50" s="29">
         <v>290</v>
@@ -13920,7 +13920,7 @@
         <v>31</v>
       </c>
       <c r="AV50" s="73" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AW50" s="42" t="s">
         <v>105</v>
@@ -13928,10 +13928,10 @@
     </row>
     <row r="51" spans="1:49">
       <c r="A51" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C51" t="s">
         <v>105</v>
@@ -13946,7 +13946,7 @@
         <v>45383</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H51" t="s">
         <v>214</v>
@@ -13967,28 +13967,28 @@
         <v>113</v>
       </c>
       <c r="N51" t="s">
+        <v>247</v>
+      </c>
+      <c r="O51" t="s">
+        <v>247</v>
+      </c>
+      <c r="P51" t="s">
         <v>248</v>
       </c>
-      <c r="O51" t="s">
-        <v>248</v>
-      </c>
-      <c r="P51" t="s">
-        <v>249</v>
-      </c>
       <c r="Q51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U51" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V51" t="s">
         <v>113</v>
@@ -14006,7 +14006,7 @@
         <v>113</v>
       </c>
       <c r="AA51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB51" t="s">
         <v>113</v>
@@ -14018,16 +14018,16 @@
         <v>92</v>
       </c>
       <c r="AG51" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH51" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AI51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ51" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK51" s="26" t="s">
         <v>105</v>
@@ -14045,13 +14045,13 @@
         <v>137</v>
       </c>
       <c r="AP51" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ51" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR51" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS51" s="29">
         <v>289</v>
@@ -14060,10 +14060,10 @@
         <v>555.29999999999995</v>
       </c>
       <c r="AU51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AV51" s="75" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AW51" s="42" t="s">
         <v>105</v>
@@ -14071,10 +14071,10 @@
     </row>
     <row r="52" spans="1:49">
       <c r="A52" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C52" t="s">
         <v>105</v>
@@ -14089,7 +14089,7 @@
         <v>45383</v>
       </c>
       <c r="G52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H52" t="s">
         <v>214</v>
@@ -14110,28 +14110,28 @@
         <v>113</v>
       </c>
       <c r="N52" t="s">
+        <v>247</v>
+      </c>
+      <c r="O52" t="s">
+        <v>247</v>
+      </c>
+      <c r="P52" t="s">
         <v>248</v>
       </c>
-      <c r="O52" t="s">
-        <v>248</v>
-      </c>
-      <c r="P52" t="s">
-        <v>249</v>
-      </c>
       <c r="Q52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U52" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V52" t="s">
         <v>113</v>
@@ -14149,7 +14149,7 @@
         <v>113</v>
       </c>
       <c r="AA52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB52" t="s">
         <v>113</v>
@@ -14161,16 +14161,16 @@
         <v>92</v>
       </c>
       <c r="AG52" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH52" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AI52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ52" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK52" s="26" t="s">
         <v>105</v>
@@ -14188,13 +14188,13 @@
         <v>137</v>
       </c>
       <c r="AP52" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ52" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR52" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS52" s="29">
         <v>281</v>
@@ -14206,7 +14206,7 @@
         <v>31</v>
       </c>
       <c r="AV52" s="75" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AW52" s="42" t="s">
         <v>105</v>
@@ -14217,7 +14217,7 @@
         <v>97801</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C53" t="s">
         <v>105</v>
@@ -14232,7 +14232,7 @@
         <v>45383</v>
       </c>
       <c r="G53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H53" t="s">
         <v>214</v>
@@ -14253,28 +14253,28 @@
         <v>113</v>
       </c>
       <c r="N53" t="s">
+        <v>247</v>
+      </c>
+      <c r="O53" t="s">
+        <v>247</v>
+      </c>
+      <c r="P53" t="s">
         <v>248</v>
       </c>
-      <c r="O53" t="s">
-        <v>248</v>
-      </c>
-      <c r="P53" t="s">
-        <v>249</v>
-      </c>
       <c r="Q53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U53" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V53" t="s">
         <v>113</v>
@@ -14292,7 +14292,7 @@
         <v>113</v>
       </c>
       <c r="AA53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB53" t="s">
         <v>113</v>
@@ -14304,19 +14304,19 @@
         <v>91</v>
       </c>
       <c r="AF53" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG53" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="AG53" s="30" t="s">
-        <v>289</v>
-      </c>
       <c r="AH53" s="49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AI53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ53" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK53" s="26" t="s">
         <v>105</v>
@@ -14334,13 +14334,13 @@
         <v>137</v>
       </c>
       <c r="AP53" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ53" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR53" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS53" s="29">
         <v>300</v>
@@ -14349,10 +14349,10 @@
         <v>583.79999999999995</v>
       </c>
       <c r="AU53" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV53" s="73" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AW53" s="42" t="s">
         <v>105</v>
@@ -14360,10 +14360,10 @@
     </row>
     <row r="54" spans="1:49">
       <c r="A54" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C54" t="s">
         <v>105</v>
@@ -14378,7 +14378,7 @@
         <v>45383</v>
       </c>
       <c r="G54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H54" t="s">
         <v>214</v>
@@ -14399,28 +14399,28 @@
         <v>113</v>
       </c>
       <c r="N54" t="s">
+        <v>247</v>
+      </c>
+      <c r="O54" t="s">
+        <v>247</v>
+      </c>
+      <c r="P54" t="s">
         <v>248</v>
       </c>
-      <c r="O54" t="s">
-        <v>248</v>
-      </c>
-      <c r="P54" t="s">
-        <v>249</v>
-      </c>
       <c r="Q54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U54" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V54" t="s">
         <v>113</v>
@@ -14438,7 +14438,7 @@
         <v>113</v>
       </c>
       <c r="AA54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB54" t="s">
         <v>113</v>
@@ -14450,19 +14450,19 @@
         <v>92</v>
       </c>
       <c r="AF54" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG54" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="AG54" s="30" t="s">
-        <v>292</v>
-      </c>
       <c r="AH54" s="48" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AI54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ54" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK54" s="26" t="s">
         <v>105</v>
@@ -14480,13 +14480,13 @@
         <v>137</v>
       </c>
       <c r="AP54" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ54" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR54" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS54" s="29">
         <v>311</v>
@@ -14495,10 +14495,10 @@
         <v>617.70000000000005</v>
       </c>
       <c r="AU54" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV54" s="73" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AW54" s="42" t="s">
         <v>105</v>
@@ -14509,7 +14509,7 @@
         <v>97816</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C55" t="s">
         <v>105</v>
@@ -14524,7 +14524,7 @@
         <v>45383</v>
       </c>
       <c r="G55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H55" t="s">
         <v>214</v>
@@ -14545,28 +14545,28 @@
         <v>113</v>
       </c>
       <c r="N55" t="s">
+        <v>247</v>
+      </c>
+      <c r="O55" t="s">
+        <v>247</v>
+      </c>
+      <c r="P55" t="s">
         <v>248</v>
       </c>
-      <c r="O55" t="s">
-        <v>248</v>
-      </c>
-      <c r="P55" t="s">
-        <v>249</v>
-      </c>
       <c r="Q55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U55" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V55" t="s">
         <v>113</v>
@@ -14584,13 +14584,13 @@
         <v>113</v>
       </c>
       <c r="AA55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB55" t="s">
         <v>113</v>
       </c>
       <c r="AC55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AD55" s="34">
         <v>45383</v>
@@ -14599,19 +14599,19 @@
         <v>91</v>
       </c>
       <c r="AF55" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG55" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="AG55" s="30" t="s">
-        <v>294</v>
-      </c>
       <c r="AH55" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AI55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ55" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK55" s="26" t="s">
         <v>105</v>
@@ -14629,13 +14629,13 @@
         <v>137</v>
       </c>
       <c r="AP55" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ55" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR55" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS55" s="29">
         <v>285</v>
@@ -14647,7 +14647,7 @@
         <v>31</v>
       </c>
       <c r="AV55" s="73" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AW55" s="42" t="s">
         <v>105</v>
@@ -14655,10 +14655,10 @@
     </row>
     <row r="56" spans="1:49">
       <c r="A56" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C56" t="s">
         <v>105</v>
@@ -14673,7 +14673,7 @@
         <v>45383</v>
       </c>
       <c r="G56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H56" t="s">
         <v>214</v>
@@ -14694,28 +14694,28 @@
         <v>113</v>
       </c>
       <c r="N56" t="s">
+        <v>247</v>
+      </c>
+      <c r="O56" t="s">
+        <v>247</v>
+      </c>
+      <c r="P56" t="s">
         <v>248</v>
       </c>
-      <c r="O56" t="s">
-        <v>248</v>
-      </c>
-      <c r="P56" t="s">
-        <v>249</v>
-      </c>
       <c r="Q56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U56" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V56" t="s">
         <v>113</v>
@@ -14733,7 +14733,7 @@
         <v>113</v>
       </c>
       <c r="AA56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB56" t="s">
         <v>113</v>
@@ -14745,19 +14745,19 @@
         <v>91</v>
       </c>
       <c r="AF56" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG56" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="AG56" s="30" t="s">
-        <v>297</v>
-      </c>
       <c r="AH56" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AI56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ56" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK56" s="26" t="s">
         <v>105</v>
@@ -14775,13 +14775,13 @@
         <v>137</v>
       </c>
       <c r="AP56" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ56" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR56" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS56" s="29">
         <v>305</v>
@@ -14790,10 +14790,10 @@
         <v>626.29999999999995</v>
       </c>
       <c r="AU56" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV56" s="75" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AW56" s="42" t="s">
         <v>105</v>
@@ -14804,7 +14804,7 @@
         <v>97808</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C57" t="s">
         <v>105</v>
@@ -14819,7 +14819,7 @@
         <v>45385</v>
       </c>
       <c r="G57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H57" t="s">
         <v>75</v>
@@ -14840,28 +14840,28 @@
         <v>113</v>
       </c>
       <c r="N57" t="s">
+        <v>247</v>
+      </c>
+      <c r="O57" t="s">
+        <v>247</v>
+      </c>
+      <c r="P57" t="s">
         <v>248</v>
       </c>
-      <c r="O57" t="s">
-        <v>248</v>
-      </c>
-      <c r="P57" t="s">
-        <v>249</v>
-      </c>
       <c r="Q57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U57" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V57" t="s">
         <v>113</v>
@@ -14879,7 +14879,7 @@
         <v>113</v>
       </c>
       <c r="AA57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB57" t="s">
         <v>113</v>
@@ -14891,19 +14891,19 @@
         <v>91</v>
       </c>
       <c r="AF57" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG57" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="AG57" s="30" t="s">
-        <v>301</v>
-      </c>
       <c r="AH57" s="54" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AI57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ57" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK57" s="26" t="s">
         <v>105</v>
@@ -14921,13 +14921,13 @@
         <v>137</v>
       </c>
       <c r="AP57" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ57" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR57" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS57" s="29">
         <v>286</v>
@@ -14939,7 +14939,7 @@
         <v>31</v>
       </c>
       <c r="AV57" s="79" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AW57" s="42" t="s">
         <v>105</v>
@@ -14947,10 +14947,10 @@
     </row>
     <row r="58" spans="1:49">
       <c r="A58" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C58" t="s">
         <v>105</v>
@@ -14965,7 +14965,7 @@
         <v>45748</v>
       </c>
       <c r="G58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H58" t="s">
         <v>75</v>
@@ -14986,28 +14986,28 @@
         <v>113</v>
       </c>
       <c r="N58" t="s">
+        <v>247</v>
+      </c>
+      <c r="O58" t="s">
+        <v>247</v>
+      </c>
+      <c r="P58" t="s">
         <v>248</v>
       </c>
-      <c r="O58" t="s">
-        <v>248</v>
-      </c>
-      <c r="P58" t="s">
-        <v>249</v>
-      </c>
       <c r="Q58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U58" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V58" t="s">
         <v>113</v>
@@ -15025,7 +15025,7 @@
         <v>113</v>
       </c>
       <c r="AA58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB58" t="s">
         <v>113</v>
@@ -15037,19 +15037,19 @@
         <v>91</v>
       </c>
       <c r="AF58" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG58" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH58" s="50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ58" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK58" s="26" t="s">
         <v>105</v>
@@ -15067,13 +15067,13 @@
         <v>137</v>
       </c>
       <c r="AP58" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ58" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR58" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS58" s="29">
         <v>272</v>
@@ -15085,7 +15085,7 @@
         <v>31</v>
       </c>
       <c r="AV58" s="73" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AW58" s="42" t="s">
         <v>105</v>
@@ -15093,10 +15093,10 @@
     </row>
     <row r="59" spans="1:49">
       <c r="A59" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C59" t="s">
         <v>105</v>
@@ -15111,7 +15111,7 @@
         <v>45748</v>
       </c>
       <c r="G59" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H59" t="s">
         <v>75</v>
@@ -15132,28 +15132,28 @@
         <v>113</v>
       </c>
       <c r="N59" t="s">
+        <v>247</v>
+      </c>
+      <c r="O59" t="s">
+        <v>247</v>
+      </c>
+      <c r="P59" t="s">
         <v>248</v>
       </c>
-      <c r="O59" t="s">
-        <v>248</v>
-      </c>
-      <c r="P59" t="s">
-        <v>249</v>
-      </c>
       <c r="Q59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U59" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V59" t="s">
         <v>113</v>
@@ -15171,7 +15171,7 @@
         <v>113</v>
       </c>
       <c r="AA59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB59" t="s">
         <v>113</v>
@@ -15183,19 +15183,19 @@
         <v>91</v>
       </c>
       <c r="AF59" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG59" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="AG59" s="30" t="s">
-        <v>306</v>
-      </c>
       <c r="AH59" s="49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AI59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ59" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK59" s="26" t="s">
         <v>105</v>
@@ -15213,13 +15213,13 @@
         <v>137</v>
       </c>
       <c r="AP59" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ59" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR59" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS59" s="29">
         <v>275</v>
@@ -15228,10 +15228,10 @@
         <v>478.8</v>
       </c>
       <c r="AU59" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AV59" s="78" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AW59" s="42" t="s">
         <v>105</v>
@@ -15242,7 +15242,7 @@
         <v>97821</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C60" t="s">
         <v>105</v>
@@ -15257,7 +15257,7 @@
         <v>45748</v>
       </c>
       <c r="G60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H60" t="s">
         <v>75</v>
@@ -15278,28 +15278,28 @@
         <v>113</v>
       </c>
       <c r="N60" t="s">
+        <v>247</v>
+      </c>
+      <c r="O60" t="s">
+        <v>247</v>
+      </c>
+      <c r="P60" t="s">
         <v>248</v>
       </c>
-      <c r="O60" t="s">
-        <v>248</v>
-      </c>
-      <c r="P60" t="s">
-        <v>249</v>
-      </c>
       <c r="Q60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U60" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V60" t="s">
         <v>113</v>
@@ -15317,31 +15317,31 @@
         <v>113</v>
       </c>
       <c r="AA60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB60" t="s">
         <v>113</v>
       </c>
       <c r="AD60" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AE60" s="39" t="s">
         <v>92</v>
       </c>
       <c r="AF60" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG60" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="AG60" s="30" t="s">
-        <v>308</v>
-      </c>
       <c r="AH60" s="45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AI60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AJ60" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK60" s="26" t="s">
         <v>105</v>
@@ -15359,13 +15359,13 @@
         <v>137</v>
       </c>
       <c r="AP60" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ60" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR60" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS60" s="29">
         <v>303</v>
@@ -15374,7 +15374,7 @@
         <v>527.70000000000005</v>
       </c>
       <c r="AV60" s="73" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AW60" s="42" t="s">
         <v>105</v>
@@ -15385,7 +15385,7 @@
         <v>97807</v>
       </c>
       <c r="B61" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C61" t="s">
         <v>105</v>
@@ -15400,7 +15400,7 @@
         <v>45748</v>
       </c>
       <c r="G61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H61" t="s">
         <v>75</v>
@@ -15421,28 +15421,28 @@
         <v>113</v>
       </c>
       <c r="N61" t="s">
+        <v>247</v>
+      </c>
+      <c r="O61" t="s">
+        <v>247</v>
+      </c>
+      <c r="P61" t="s">
         <v>248</v>
       </c>
-      <c r="O61" t="s">
-        <v>248</v>
-      </c>
-      <c r="P61" t="s">
-        <v>249</v>
-      </c>
       <c r="Q61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U61" s="82" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V61" t="s">
         <v>113</v>
@@ -15460,7 +15460,7 @@
         <v>113</v>
       </c>
       <c r="AA61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB61" t="s">
         <v>113</v>
@@ -15472,19 +15472,19 @@
         <v>91</v>
       </c>
       <c r="AF61" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG61" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AH61" s="55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AI61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ61" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK61" s="26" t="s">
         <v>105</v>
@@ -15502,13 +15502,13 @@
         <v>137</v>
       </c>
       <c r="AP61" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ61" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR61" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS61" s="29">
         <v>280</v>
@@ -15517,10 +15517,10 @@
         <v>486.6</v>
       </c>
       <c r="AU61" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AV61" s="73" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AW61" s="42" t="s">
         <v>105</v>
@@ -15540,7 +15540,7 @@
         <v>45748</v>
       </c>
       <c r="G62" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H62" t="s">
         <v>75</v>
@@ -15573,7 +15573,7 @@
         <v>113</v>
       </c>
       <c r="AR62" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AW62" s="42" t="s">
         <v>105</v>
@@ -15581,10 +15581,10 @@
     </row>
     <row r="63" spans="1:49">
       <c r="A63" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s">
         <v>105</v>
@@ -15599,7 +15599,7 @@
         <v>45748</v>
       </c>
       <c r="G63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H63" t="s">
         <v>75</v>
@@ -15620,28 +15620,28 @@
         <v>113</v>
       </c>
       <c r="N63" t="s">
+        <v>247</v>
+      </c>
+      <c r="O63" t="s">
+        <v>247</v>
+      </c>
+      <c r="P63" t="s">
         <v>248</v>
       </c>
-      <c r="O63" t="s">
-        <v>248</v>
-      </c>
-      <c r="P63" t="s">
-        <v>249</v>
-      </c>
       <c r="Q63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U63" s="82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V63" t="s">
         <v>113</v>
@@ -15659,7 +15659,7 @@
         <v>113</v>
       </c>
       <c r="AA63" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB63" t="s">
         <v>113</v>
@@ -15671,19 +15671,19 @@
         <v>91</v>
       </c>
       <c r="AF63" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG63" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="AG63" s="30" t="s">
-        <v>314</v>
-      </c>
       <c r="AH63" s="55" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AI63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ63" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK63" s="26" t="s">
         <v>105</v>
@@ -15701,13 +15701,13 @@
         <v>137</v>
       </c>
       <c r="AP63" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ63" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR63" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS63" s="29">
         <v>289</v>
@@ -15716,10 +15716,10 @@
         <v>485.9</v>
       </c>
       <c r="AU63" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AV63" s="73" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AW63" s="42" t="s">
         <v>105</v>
@@ -15730,7 +15730,7 @@
         <v>97844</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" t="s">
         <v>105</v>
@@ -15745,7 +15745,7 @@
         <v>45748</v>
       </c>
       <c r="G64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H64" t="s">
         <v>75</v>
@@ -15766,28 +15766,28 @@
         <v>113</v>
       </c>
       <c r="N64" t="s">
+        <v>247</v>
+      </c>
+      <c r="O64" t="s">
+        <v>247</v>
+      </c>
+      <c r="P64" t="s">
         <v>248</v>
       </c>
-      <c r="O64" t="s">
-        <v>248</v>
-      </c>
-      <c r="P64" t="s">
-        <v>249</v>
-      </c>
       <c r="Q64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U64" s="82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V64" t="s">
         <v>113</v>
@@ -15805,7 +15805,7 @@
         <v>113</v>
       </c>
       <c r="AA64" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB64" t="s">
         <v>113</v>
@@ -15817,19 +15817,19 @@
         <v>91</v>
       </c>
       <c r="AF64" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="AG64" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="AG64" s="30" t="s">
-        <v>316</v>
-      </c>
       <c r="AH64" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ64" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK64" s="26" t="s">
         <v>105</v>
@@ -15847,13 +15847,13 @@
         <v>137</v>
       </c>
       <c r="AP64" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ64" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR64" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS64" s="29">
         <v>303</v>
@@ -15862,10 +15862,10 @@
         <v>503.4</v>
       </c>
       <c r="AU64" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AV64" s="73" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AW64" s="42" t="s">
         <v>105</v>
@@ -15876,7 +15876,7 @@
         <v>97820</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s">
         <v>105</v>
@@ -15891,7 +15891,7 @@
         <v>45748</v>
       </c>
       <c r="G65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H65" t="s">
         <v>75</v>
@@ -15912,28 +15912,28 @@
         <v>113</v>
       </c>
       <c r="N65" t="s">
+        <v>247</v>
+      </c>
+      <c r="O65" t="s">
+        <v>247</v>
+      </c>
+      <c r="P65" t="s">
         <v>248</v>
       </c>
-      <c r="O65" t="s">
-        <v>248</v>
-      </c>
-      <c r="P65" t="s">
-        <v>249</v>
-      </c>
       <c r="Q65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U65" s="82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V65" t="s">
         <v>113</v>
@@ -15951,7 +15951,7 @@
         <v>113</v>
       </c>
       <c r="AA65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB65" t="s">
         <v>113</v>
@@ -15963,16 +15963,16 @@
         <v>92</v>
       </c>
       <c r="AG65" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AH65" s="56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AI65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ65" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK65" s="26" t="s">
         <v>105</v>
@@ -15990,13 +15990,13 @@
         <v>137</v>
       </c>
       <c r="AP65" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ65" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR65" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS65" s="29">
         <v>277</v>
@@ -16005,10 +16005,10 @@
         <v>464.6</v>
       </c>
       <c r="AU65" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AV65" s="79" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AW65" s="42" t="s">
         <v>105</v>
@@ -16016,10 +16016,10 @@
     </row>
     <row r="66" spans="1:49">
       <c r="A66" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C66" t="s">
         <v>105</v>
@@ -16034,7 +16034,7 @@
         <v>45748</v>
       </c>
       <c r="G66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H66" t="s">
         <v>75</v>
@@ -16055,28 +16055,28 @@
         <v>113</v>
       </c>
       <c r="N66" t="s">
+        <v>247</v>
+      </c>
+      <c r="O66" t="s">
+        <v>247</v>
+      </c>
+      <c r="P66" t="s">
         <v>248</v>
       </c>
-      <c r="O66" t="s">
-        <v>248</v>
-      </c>
-      <c r="P66" t="s">
-        <v>249</v>
-      </c>
       <c r="Q66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U66" s="82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V66" t="s">
         <v>113</v>
@@ -16094,7 +16094,7 @@
         <v>113</v>
       </c>
       <c r="AA66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB66" t="s">
         <v>113</v>
@@ -16106,19 +16106,19 @@
         <v>91</v>
       </c>
       <c r="AF66" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG66" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AH66" s="49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AI66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ66" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK66" s="26" t="s">
         <v>105</v>
@@ -16136,13 +16136,13 @@
         <v>137</v>
       </c>
       <c r="AP66" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ66" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR66" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS66" s="29">
         <v>273</v>
@@ -16151,10 +16151,10 @@
         <v>409.9</v>
       </c>
       <c r="AU66" t="s">
+        <v>454</v>
+      </c>
+      <c r="AV66" s="78" t="s">
         <v>456</v>
-      </c>
-      <c r="AV66" s="78" t="s">
-        <v>458</v>
       </c>
       <c r="AW66" s="42" t="s">
         <v>105</v>
@@ -16165,7 +16165,7 @@
         <v>97803</v>
       </c>
       <c r="B67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C67" t="s">
         <v>105</v>
@@ -16180,7 +16180,7 @@
         <v>45748</v>
       </c>
       <c r="G67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H67" t="s">
         <v>75</v>
@@ -16201,28 +16201,28 @@
         <v>113</v>
       </c>
       <c r="N67" t="s">
+        <v>247</v>
+      </c>
+      <c r="O67" t="s">
+        <v>247</v>
+      </c>
+      <c r="P67" t="s">
         <v>248</v>
       </c>
-      <c r="O67" t="s">
-        <v>248</v>
-      </c>
-      <c r="P67" t="s">
-        <v>249</v>
-      </c>
       <c r="Q67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U67" s="82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V67" t="s">
         <v>113</v>
@@ -16240,7 +16240,7 @@
         <v>113</v>
       </c>
       <c r="AA67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB67" t="s">
         <v>113</v>
@@ -16252,16 +16252,16 @@
         <v>92</v>
       </c>
       <c r="AG67" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AH67" s="55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AI67" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ67" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK67" s="26" t="s">
         <v>105</v>
@@ -16279,13 +16279,13 @@
         <v>137</v>
       </c>
       <c r="AP67" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ67" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR67" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS67" s="29">
         <v>280</v>
@@ -16297,7 +16297,7 @@
         <v>31</v>
       </c>
       <c r="AV67" s="73" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AW67" s="42" t="s">
         <v>105</v>
@@ -16308,7 +16308,7 @@
         <v>97831</v>
       </c>
       <c r="B68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C68" t="s">
         <v>105</v>
@@ -16323,7 +16323,7 @@
         <v>45748</v>
       </c>
       <c r="G68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H68" t="s">
         <v>75</v>
@@ -16344,28 +16344,28 @@
         <v>113</v>
       </c>
       <c r="N68" t="s">
+        <v>247</v>
+      </c>
+      <c r="O68" t="s">
+        <v>247</v>
+      </c>
+      <c r="P68" t="s">
         <v>248</v>
       </c>
-      <c r="O68" t="s">
-        <v>248</v>
-      </c>
-      <c r="P68" t="s">
-        <v>249</v>
-      </c>
       <c r="Q68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="R68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U68" s="82" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V68" t="s">
         <v>113</v>
@@ -16383,7 +16383,7 @@
         <v>113</v>
       </c>
       <c r="AA68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB68" t="s">
         <v>113</v>
@@ -16395,19 +16395,19 @@
         <v>91</v>
       </c>
       <c r="AF68" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG68" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="AG68" s="30" t="s">
-        <v>323</v>
-      </c>
       <c r="AH68" s="48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AI68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ68" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AK68" s="26" t="s">
         <v>105</v>
@@ -16425,13 +16425,13 @@
         <v>137</v>
       </c>
       <c r="AP68" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AQ68" s="44" t="s">
         <v>113</v>
       </c>
       <c r="AR68" s="57" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="AS68" s="29">
         <v>278</v>
@@ -16440,10 +16440,10 @@
         <v>424.4</v>
       </c>
       <c r="AU68" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AV68" s="80" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AW68" s="42" t="s">
         <v>105</v>
@@ -16699,10 +16699,10 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -16747,15 +16747,15 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>44</v>
@@ -16862,15 +16862,15 @@
         <v>30</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -16899,7 +16899,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>30</v>
@@ -16910,7 +16910,7 @@
         <v>107</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -16974,10 +16974,10 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -16985,15 +16985,15 @@
         <v>102</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:2">
